--- a/Datos/Database by set/Set with text box/Xlsx sets/Guildpact Promos (PGPT).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Guildpact Promos (PGPT).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,98 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Djinn Illuminatus</t>
+          <t>('Djinn Illuminatus', ['{5}{U/R}{U/R}', 'Creature — Djinn', '({U/R} can be paid with either {U} or {R}.)', 'Flying', 'Each instant and sorcery spell you cast has replicate. The replicate cost is equal to its mana cost. (When you cast it, copy it for each time you paid its replicate cost. You may choose new targets for the copies.)', '3/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{5}{U/R}{U/R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Djinn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>({U/R} can be paid with either {U} or {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Each instant and sorcery spell you cast has replicate. The replicate cost is equal to its mana cost. (When you cast it, copy it for each time you paid its replicate cost. You may choose new targets for the copies.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gruul Guildmage</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{R/G}{R/G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Creature — Human Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>({R/G} can be paid with either {R} or {G}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{3}{R}, Sacrifice a land: Gruul Guildmage deals 2 damage to target player or planeswalker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{3}{G}: Target creature gets +2/+2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Gruul Guildmage', ['{R/G}{R/G}', 'Creature — Human Shaman', '({R/G} can be paid with either {R} or {G}.)', '{3}{R}, Sacrifice a land: Gruul Guildmage deals 2 damage to target player or planeswalker.', '{3}{G}: Target creature gets +2/+2 until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
